--- a/biology/Zoologie/Arnold_Förster/Arnold_Förster.xlsx
+++ b/biology/Zoologie/Arnold_Förster/Arnold_Förster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arnold_F%C3%B6rster</t>
+          <t>Arnold_Förster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arnold Förster est un entomologiste allemand, né le 20 janvier 1810 à Aix-la-Chapelle, où il est mort le 13 août 1884. Il était spécialiste des diptères et des hyménoptères.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arnold_F%C3%B6rster</t>
+          <t>Arnold_Förster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Caspar Aegidius Arnold Förster et de Katherine Thera Angelika, née Duyckers. Il fait ses études à Bonn de 1832 à 1836 et obtient un Ph. D. honoraire en 1853. Il se marie en 1842 avec Maria Barbara Zimmermann.
 Il enseigne de 1836 à 1884 à la Realschule d’Aix-la-Chapelle, qu’il dirige de 1850 à 1884. Il est membre de l'Académie allemande des sciences Leopoldina.
